--- a/mlai-internship/train_test_split_demo.xlsx
+++ b/mlai-internship/train_test_split_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://opsracsch-my.sharepoint.com/personal/k41929_365oft_top/Documents/aiml-tranining/aiml/mlai-internship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DBDEEE6-2B21-2043-808F-B6A0FFE2B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{6DBDEEE6-2B21-2043-808F-B6A0FFE2B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F72732F5-1DB3-424E-B4E1-82641EF820F8}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="660" windowWidth="20480" windowHeight="14760" xr2:uid="{F176BB25-F591-8F4B-9A40-8DCF46369232}"/>
+    <workbookView xWindow="-25600" yWindow="600" windowWidth="25600" windowHeight="19880" xr2:uid="{F176BB25-F591-8F4B-9A40-8DCF46369232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>F1</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>4x1</t>
+  </si>
+  <si>
+    <t>X (20x4)</t>
+  </si>
+  <si>
+    <t>y (20x1)</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>X_train 16x4</t>
+  </si>
+  <si>
+    <t>y_train 16x1</t>
+  </si>
+  <si>
+    <t>X_test 4x4</t>
+  </si>
+  <si>
+    <t>y_test (4x1)</t>
   </si>
 </sst>
 </file>
@@ -164,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -187,11 +211,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -200,10 +341,50 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD6AFCB-4CD1-744E-8B8F-C1423CD89EFC}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,33 +747,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="7" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -600,15 +789,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="H4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -616,15 +806,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -632,169 +823,202 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="H6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,7 +1034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>9</v>
       </c>
@@ -819,6 +1043,15 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G2:G17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="B2:E17"/>
+    <mergeCell ref="F2:F17"/>
+    <mergeCell ref="B18:E21"/>
+    <mergeCell ref="F18:F21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>